--- a/loaded_influencer_data/lethu1923/lethu1923_video.xlsx
+++ b/loaded_influencer_data/lethu1923/lethu1923_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,45 +506,45 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7420400575067458823</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1300000</v>
+        <v>1400000</v>
       </c>
       <c r="C2" t="n">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="D2" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1322</v>
+        <v>1330</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nám, sạm, tàn nhang làm mình ám ảnh ghê luôn. Nhưng giờ thì ổn hơn rồi nha #thecafune #kemnamcafune #kemnam</t>
+          <t>멜라스마, 어둡고 주근깨가 항상 나를 괴롭힙니다. 하지만 지금은 더 나아졌습니다.#thecafune #kemnamcafune</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9795384615384616</v>
+        <v>0.9168571428571428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.018</v>
+        <v>0.01685714285714286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1016923076923077</v>
+        <v>0.095</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,2215 +558,2215 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lethu1923/video/7489420450259356934</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1615</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12600</v>
+      </c>
+      <c r="D3" t="n">
+        <v>236</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1330</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>멜라스마, 어둡고 주근깨가 항상 나를 괴롭힙니다. 하지만 지금은 더 나아졌습니다.#thecafune #kemnamcafune</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>794.798761609907</v>
+      </c>
+      <c r="I3" t="n">
+        <v>780.1857585139319</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.61300309597523</v>
+      </c>
+      <c r="L3" t="n">
+        <v>82.35294117647058</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2024-9-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7486783464851787015</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>9559</v>
-      </c>
-      <c r="C3" t="n">
-        <v>258</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Dùng em này Thích Lắm mấy bà ơi #saothaiduong #myphamthaiduong #botkhumui #longtime #thichlam</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3.012867454754681</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.699027094884402</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3138403598702793</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.07322941730306518</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2025-03-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>101600</v>
+      </c>
+      <c r="C4" t="n">
+        <v>109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>피망 바나나 제품을 사용해 보셨습니까?</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1082677165354331</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1072834645669291</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.000984251968503937</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.000984251968503937</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7480864319039606024</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>143200</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1097</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B5" t="n">
+        <v>143300</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1652</v>
+      </c>
+      <c r="D5" t="n">
+        <v>49</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>나는 이것을 좋아한다, 숙녀 여러분.#saothaiduong #myphamthaiduong #botkhumui #longtime #thichlam</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.18702023726448</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.152826238660154</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.03419399860432659</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.007676203768318213</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lethu1923/video/7480360511457037576</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>221100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>871</v>
+      </c>
+      <c r="D6" t="n">
         <v>66</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>19</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Mình may mắn biết đến em xịt mũi này sớm #Nebusal #cachmangkhongkhangsinh #kienthucchamcon</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8121508379888268</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7660614525139665</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.04608938547486034</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.01326815642458101</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>일찍 코를 뿌린 것을 알고 운이 좋았습니다.#Nebusal #cachmangkhongkhangsinh #kienthucchamcon</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4237901402080507</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.393939393939394</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.02985074626865672</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.008593396653098146</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lethu1923/video/7480360511457037576</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>221000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2161</v>
-      </c>
-      <c r="D5" t="n">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lethu1923/video/7478567297817365767</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>348300</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D7" t="n">
         <v>45</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>61</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Tui mới tìm ra bộ sp chăm sóc da của nhà Flowtine, đây là dòng mỹ phẩm làm mát dành riêng cho người Việt, phù hợp với làn da và khí hậu việt nam nè</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9981900452488688</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9778280542986425</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.02036199095022624</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.02760180995475113</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tui mới tìm ra bộ sp chăm sóc da của nhà Flowtine, đây là dòng mỹ phẩm làm mát dành riêng cho người Việt, phù hợp với làn da và khí hậu việt nam nè #flowtine #mypham #chamda #foryou</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.409130060292851</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3962101636520241</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.01291989664082687</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.01751363766867643</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lethu1923/video/7478567297817365767</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>348200</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D6" t="n">
-        <v>42</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lethu1923/video/7475716728572366088</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82500</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2448</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>117</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Phải chi mình biết đến BB LAB sớm hơn, nhưng giờ vẫn chưa muộn. Mấy bà nên thử nha #BBLab #collagen</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8210798391728891</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8090178058587019</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01206203331418725</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.03360137851809305</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>BB LAB을 더 일찍 알았더라면 좋았을 텐데, 아직 늦지 않았어요.#BBLab #collagen #sangda #trehoa</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3.01939393939394</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.967272727272727</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.05212121212121212</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1418181818181818</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lethu1923/video/7475716728572366088</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>82400</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lethu1923/video/7473837726245063944</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>347200</v>
+      </c>
+      <c r="C9" t="n">
         <v>1647</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>54</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>12</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Giặt riêng đồ lót là chưa đủ, mà cần có 1 loại nước giặt để chăm sóc bản thân tốt hơn nè #SAIGLEI #SAIGLEI .VN</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2.064320388349514</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.99878640776699</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.06553398058252427</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.01456310679611651</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>속옷을 세탁하는 것만으로는 충분하지 않습니다. 자신을 더 잘 돌보기 위해서는 세탁 세제가 필요합니다. VN#SAIGLEI</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4899193548387097</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4743663594470047</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.01555299539170507</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003456221198156682</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lethu1923/video/7473837726245063944</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>347000</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lethu1923/video/7473102082317323528</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>31600</v>
+      </c>
+      <c r="C10" t="n">
         <v>4736</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D10" t="n">
         <v>126</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>438</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Tha hồ tạo kiểu mà ko lo tóc h.ư tổn mí bà đẹp ơi #ArganicareVietNam #Daugoicollagen #DCcare</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1.401152737752161</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.364841498559078</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.03631123919308357</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1262247838616715</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tha hồ tạo kiểu mà ko lo tóc h.ư tổn mí bà đẹp ơi #ArganicareVietNam #Daugoicollagen #DCcare #Daugoichinhhang #phuchoihuton</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>15.38607594936709</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.9873417721519</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3987341772151899</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.386075949367089</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lethu1923/video/7473102082317323528</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>31400</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1233</v>
-      </c>
-      <c r="D9" t="n">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lethu1923/video/7472282556847705352</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>301500</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3427</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>288</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Trang điểm đẹp xong chưa đủ. Mấy bà cần thêm bước xịt khoá lớp trang điểm nữa mới đủ tự tin nhen #xitkhoamakeup</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1.13665008291874</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.13665008291874</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.09552238805970149</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lethu1923/video/7461605849941691655</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>121900</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D12" t="n">
         <v>41</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>113</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Thói quen dùng Toner Pad giúp da tui ok hơn hẳn nè #Abib #abibvn #tonerpad</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4.057324840764331</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.926751592356688</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1305732484076433</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.3598726114649682</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lethu1923/video/7472282556847705352</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>301500</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3427</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>288</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Trang điểm đẹp xong chưa đủ. Mấy bà cần thêm bước xịt khoá lớp trang điểm nữa mới đủ tự tin nhen #xitkhoamakeup</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1.13665008291874</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.13665008291874</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.09552238805970149</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lethu1923/video/7461605849941691655</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>121900</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1930</v>
-      </c>
-      <c r="D11" t="n">
-        <v>41</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>174</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Ra đường chỉ cần thoa kem chống nắng này thêm tí son nữa là tự tin rồi mí bà #Peaksuncream , #kemchongnang ,</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1.616899097621001</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1.583264971287941</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.03363412633305989</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>0.1427399507793273</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-01-19</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7461198745741348114</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>85300</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>1336</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>51</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>77</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Chăm da đón tết chị em nhé #NeedleFreeFiller #Hydrogenmask #ParkHangSeo #Pickk #Skincare</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1.626025791324736</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>1.566236811254396</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.05978898007033998</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>0.0902696365767878</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-01-18</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7459358895543340295</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>157600</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>2272</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>62</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>80</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Khoẻ từ trong ra ngoài, đẹp từ ngoài vào trong
 Tự tin làm điều mình thích, chẳng ngại điều chi nhờ viên uống men vi sinh này nè</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1.480964467005076</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>1.441624365482234</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.03934010152284264</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v>0.05076142131979695</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-01-13</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7459009510787648776</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>35700</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>1318</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>216</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>85</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Mình thật sự chưa từng thấy hộp quà nào đặc biệt như thế này! Không chỉ chú trọng đến chất lượng sức khỏe, mà còn gửi gắm ý nghĩa sâu sắc đầy tinh tế</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>4.296918767507003</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>3.69187675070028</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.6050420168067226</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L15" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-01-12</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7458617794297335047</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>117300</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>1549</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>48</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>47</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>DDVS cho con cần phải xài riêng nha các mẹ. Mẹ nào có con gái thì nên lưu ý nha !!
 #Dungdichvesinhtreem #DDVS</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1.361466325660699</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>1.320545609548167</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.04092071611253197</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>0.04006820119352088</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-01-11</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7458251838282894610</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>279200</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>3681</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>150</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>255</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Tui mới phát hiện ra shop Mỹ Phẩm ê hề đồ luôn, món gì cũng có mà giá ok quá chừng luôn nè. Mấy bà ghé thử coi tui nói đúng ko nha</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1.372134670487106</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>1.318409742120344</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.05372492836676218</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>0.0913323782234957</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-01-10</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7457162529115081991</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>223200</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>3297</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>58</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>251</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Cùng tui sắm Skin chơi tết cùng Laroche Posay nè mí bà ơi #samskinchoitet #larocheposayvn #larocheposay</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>1.503136200716846</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>1.477150537634409</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.02598566308243727</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>0.1124551971326165</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7456761457921838343</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>210500</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>2004</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>55</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>248</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Thấy hot quá phải mua về thử xem sao nè. Ai bị vàng răng thì mua về dùng thử đi mn #dailywhitening #sicawhite</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>0.978147268408551</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>0.952019002375297</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.02612826603325416</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>0.1178147268408551</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-01-06</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7456405563958660360</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>77800</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>946</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>65</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>18</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Nhờ bộ sản phẩm này mà da tui căng bóng, đàn hồi mê quá mí bà ơi #Skincare #ThẩmMỹViện #TrắngDa #CăngBóng</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>1.299485861182519</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>1.215938303341902</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.08354755784061696</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>0.02313624678663239</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-01-05</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7456025440604474631</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>93000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>1242</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>42</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>11</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Đừng để cái tuổi, nó đuổi xuân đi nha mí bà #lalcume #trangda #kemduongtrang @Lalcume Việt Nam</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>1.380645161290323</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>1.335483870967742</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.04516129032258064</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>0.01182795698924731</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-01-04</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7455657991002492167</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>184800</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>1763</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>52</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>47</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Bạn nào có nhu cầu chọn quà tết thì Danisa là một gợi ý thú vị
 Bánh có bao bì đẹp mắt, phù hợp quà tặng, lại có hương vị thơm ngon, nếu may mắn trúng quà nữa thì niềm vui nhân đôi</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>0.9821428571428571</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>0.954004329004329</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.02813852813852814</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>0.02543290043290044</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-01-03</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7455595666039917842</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>46400</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>722</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>63</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>11</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Thời này ai xài khăn giấy cuộn nữa. Mua giấy treo tường Tako về xài cho tiện mn ạ #tiktokshop #muataitiktokshop</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>1.691810344827586</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>1.556034482758621</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.1357758620689655</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>0.02370689655172414</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-01-03</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7455288525928336647</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>145100</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>1730</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>122</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>131</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Thật sự đau dạ dày khó chịu ha mn. Ai gặp tình trạng như Thư thì dùng thử nha #safcumin #daday</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>1.276361130254997</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>1.192281185389387</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.08407994486560993</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>0.09028256374913853</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-01-02</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7453430974223879432</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>64099</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>705</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>107</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>81</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Thùng giấy ăn Tako 30 gói xài thoải mái #giayan #giayanthung30goi #tako #giaytako</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>1.266790433548105</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>1.099861152280067</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.1669292812680385</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>0.126367026006646</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2024-12-28</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7453077617164569863</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>100800</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>643</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>32</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>79</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Ai bị mụn thì xài thử nè #Drleo #Drleovn #chammun #chammundrleo #skincare #fyp</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>0.6696428571428571</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>0.6378968253968254</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.03174603174603174</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>0.07837301587301587</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2024-12-27</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7452713669131062546</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>283100</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>1482</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>3</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>487</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Phim này hay xỉu, cười ẻ luôn nè #404RunRun #404ChayNgayDi #LeDuongBaoLam #MockingbirdPictures</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>0.5245496291063229</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>0.5234899328859061</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.001059696220416814</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>0.1720240197809961</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7452671370271476999</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>88200</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>920</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>4</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>79</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Từ ngày sắm bộ nồi nhà Ecowin tui siêng nấu ăn hẳn , ko cần Chồng nhắc luôn hehee #ecowin #bonoichongdinh #xuhuong</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>1.047619047619048</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>1.043083900226757</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.00453514739229025</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>0.08956916099773243</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2024-12-26</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7451964248130981127</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>72800</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>914</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>30</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>92</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Khăn giấy treo tường Tako rẻ quá mn ơi #tako #khangiaytreotuong</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>1.296703296703297</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>1.255494505494505</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.04120879120879121</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L29" t="n">
         <v>0.1263736263736264</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7451520797400730887</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>211200</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>2420</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>7</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>386</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Giáng sinh an lành cùng bạn bè với M&amp;M’S phiên bản giáng sinh siêu yêu gắn kết niềm vui, mn chia sẽ niềm vui với nhau!</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>1.149147727272727</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>1.145833333333333</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.00331439393939394</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>0.1827651515151515</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2024-12-23</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7450839601951952136</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>141400</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C31" t="n">
         <v>1888</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>335</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Phòng còn hơn chữa các Mẹ ơi , và nhớ chăm sóc sức khoẻ tốt cho con nhé #salushbabyboost #babyboost</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>1.335926449787836</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>1.335219236209335</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.0007072135785007072</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>0.2369165487977369</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2024-12-21</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7450342385105620232</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>83500</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>1191</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>4</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>301</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Xài khăn giấy rút Tako mà mê luôn. Vừa rẻ vừa tiện lợi thật sự #giaytreotuong #tako #xuhuong #trending</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>1.431137724550898</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>1.426347305389221</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.004790419161676647</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L32" t="n">
         <v>0.3604790419161677</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-12-20</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7449996204978539794</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>151600</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>3163</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>87</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>285</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Xài khăn giấy rút Tako mà mê luôn. Vừa rẻ vừa tiện lợi thật sự #giaytreotuong #tako #xuhuong #trending</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>2.143799472295515</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>2.086411609498681</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.05738786279683377</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>0.1879947229551451</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7449960590015008008</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>96800</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>2263</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>45</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>124</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Tết này có kẹo bóc võ BoBo đãi khách được nè mn #keotet , #banhkeotet , #keodeotet , #keotetbobo ,</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>2.384297520661157</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>2.337809917355372</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.04648760330578512</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L34" t="n">
         <v>0.128099173553719</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-12-19</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7449679128262954258</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B35" t="n">
         <v>100800</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C35" t="n">
         <v>1705</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D35" t="n">
         <v>53</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>151</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Giấy ăn Tako là những thứ nhà tui ko thể thiếu, hết là phải mua tiếp #TAKOVN</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>1.744047619047619</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I35" t="n">
         <v>1.691468253968254</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.05257936507936509</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L35" t="n">
         <v>0.1498015873015873</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7449355287267478802</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B36" t="n">
         <v>379800</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C36" t="n">
         <v>4876</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D36" t="n">
         <v>142</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>585</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Cùng mình trải nghiệm mua sắm tại CITY SALE cả nhà ơi, các ngành hàng phong phú : từ nước hoa, mỹ phẩm, giày và quần áo thể thao của gian hàng Vstyle, tất cả đều góp mặt để làm nên sự hoành trắng cho sự kiện này nè!</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>1.321221695629279</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>1.283833596629805</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.03738809899947341</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L36" t="n">
         <v>0.1540284360189574</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7449244833199164680</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B37" t="n">
         <v>126300</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>2121</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>31</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>138</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Bây giờ nhiều món chăm sóc cho bé vừa tiện vừa hiệu quả các mẹ ha. Như bộ đôi xịt mũi Nebusal này nè #Nebusal</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>1.70387965162312</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>1.679334916864608</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.02454473475851148</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L37" t="n">
         <v>0.1092636579572447</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-12-17</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7448986525536111879</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B38" t="n">
         <v>79800</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C38" t="n">
         <v>1758</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>38</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>100</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Ai từng bị sẹo thì đừng có buồn nha, dùng thử em này #abera #scar #sẹo @Abera Miền Trung</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>2.25062656641604</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>2.203007518796992</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.04761904761904762</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L38" t="n">
         <v>0.12531328320802</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7448599316723272968</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B39" t="n">
         <v>123500</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C39" t="n">
         <v>2239</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>4</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>184</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Trời này mà vừa ăn bánh và nhâm nhi trà sữa tự pha tại nhà thì còn gì tuyệt hơn mí bà #K -Ginseng #KoreanSnacks</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>1.816194331983805</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>1.812955465587044</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.003238866396761133</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L39" t="n">
         <v>0.1489878542510122</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-12-15</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7448134035248844039</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>150600</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>2480</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>63</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>228</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Chu trình 14 ngày của tui nà mí bà ơi ! Cũng nhờ bộ sản phẩm của @Vilux Cosmetic đó ạ #vilux #viluxcosmetic</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>1.688579017264276</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>1.646746347941567</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.04183266932270916</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L40" t="n">
         <v>0.151394422310757</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-12-14</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7447851944938360071</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
         <v>224600</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C41" t="n">
         <v>3297</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>120</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>289</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Để có nụ cười xinh, tự tin khi cười nói. Thì phải thăm khám Nha Khoa định kỳ mn ơi #nhakhoatamphucsmile #NhakhoaQ12</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>1.521371326803206</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I41" t="n">
         <v>1.467943009795191</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.05342831700801424</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L41" t="n">
         <v>0.128673196794301</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7447514090060156168</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B42" t="n">
         <v>110700</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C42" t="n">
         <v>2414</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>135</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Nếu ai đang tìm loại sữa rửa mặt làm sạch kin kít. Thì sài thử em này đi #CKA</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H42" t="n">
         <v>2.186088527551942</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I42" t="n">
         <v>2.1806684733514</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.005420054200542005</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L42" t="n">
         <v>0.1219512195121951</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7447495812713614600</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>200000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>3262</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>99</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>183</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Chọn kem nền cũng rất quan trọng, để có lớp make up đẹp đó mí bà #makeheal #1plfoundaiser #glowup #kemnenmakeheal</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>1.6805</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>1.631</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.0495</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>0.0915</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7447148811190930706</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>130600</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>1806</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D44" t="n">
         <v>75</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>95</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Chọn kem nền cũng rất quan trọng, để có lớp make up đẹp đó mí bà #makeheal #1plfoundaiser #glowup #kemnenmakeheal</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>1.440275650842266</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>1.382848392036753</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.05742725880551302</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L44" t="n">
         <v>0.07274119448698316</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7447113808788737287</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
         <v>78900</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C45" t="n">
         <v>1741</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D45" t="n">
         <v>3</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>153</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
         <v>2.210392902408111</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I45" t="n">
         <v>2.20659062103929</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.003802281368821293</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L45" t="n">
         <v>0.1939163498098859</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-12-11</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7446749888001412370</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B46" t="n">
         <v>222100</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
         <v>3366</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D46" t="n">
         <v>48</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>151</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Chọn nón bảo hiểm chất lượng để đảm bảo an toàn cho những người thân yêu ! #RoyalHelmet</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>1.537145429986493</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>1.515533543448897</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.02161188653759568</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L46" t="n">
         <v>0.0679873930661864</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7446741181674933511</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
         <v>90400</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C47" t="n">
         <v>1866</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>264</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Mấy bà ơi! Dùng Combo da xinh từ Gạo này ok nè, mấy bà thử nha #loveandpebble #daxinhtugao</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2.067477876106195</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.064159292035398</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.003318584070796461</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.2920353982300885</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2024-12-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lethu1923/video/7446375123793235207</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>114200</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1360</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
@@ -2775,182 +2775,232 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
+        <v>264</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Mấy bà ơi! Dùng Combo da xinh từ Gạo này ok nè, mấy bà thử nha #loveandpebble #daxinhtugao</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2.067477876106195</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.064159292035398</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.003318584070796461</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.2920353982300885</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lethu1923/video/7446375123793235207</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>114200</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>71</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Được bữa mua tặng Chồng cái áo mà Chồng ưng quá trời #MUSLAND #PoloNam #MuslandFashion</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H48" t="n">
         <v>1.193520140105079</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I48" t="n">
         <v>1.190893169877408</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.002626970227670753</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L48" t="n">
         <v>0.06217162872154115</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-9</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7446029923543698706</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>313400</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>4680</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>9</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>334</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Hôm nay mình lại có lịch đến Long Châu tiêm cho con! Mình luôn tin tưởng và đồng hành cùng TCLC vì ở đây có độ uy tính, an toàn cao!</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>1.49617102744097</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>1.493299298021697</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.002871729419272495</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L49" t="n">
         <v>0.1065730695596682</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-12-8</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7446003037249785106</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B50" t="n">
         <v>86100</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C50" t="n">
         <v>888</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>253</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Người đẹp vì lụa. Muốn lụa đẹp, lụa thơm thì dùng nước giặt xả Mori nha mí bà #nuocgiatxa #mori #nuocgiatxamori</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H50" t="n">
         <v>1.033681765389082</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I50" t="n">
         <v>1.031358885017422</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.002322880371660859</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L50" t="n">
         <v>0.2938443670150988</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-12-8</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lethu1923/video/7445637083718339858</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B51" t="n">
         <v>190500</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
         <v>2409</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>28</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>245</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Sắp tết rồi á. Mấy bà tính để da đen ăn tết hả? Mua em này về sài đi cho trắng trẻo #CKA #cka #trending</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="H51" t="n">
         <v>1.279265091863517</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I51" t="n">
         <v>1.264566929133858</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.01469816272965879</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L51" t="n">
         <v>0.1286089238845144</v>
       </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-12-7</t>
         </is>
